--- a/Karşılaştırma/Karşılaştırma-Aviyonik.xlsx
+++ b/Karşılaştırma/Karşılaştırma-Aviyonik.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMET HUSREV EROL\Desktop\excelsablonlari-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMET HUSREV EROL\Desktop\excelsablonlari-main\Karşılaştırma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C618AAD-676A-4707-A494-26FFB74A3910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15570EBB-10A0-43DE-92AE-F9F4F958F994}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{810C3942-183C-4B27-84F7-B6930E5A34BD}"/>
   </bookViews>
@@ -45,55 +45,6 @@
     <t>Sensörler</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">KÖTÜ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  1---5   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> İYİ</t>
-    </r>
-  </si>
-  <si>
     <t>Maliyet</t>
   </si>
   <si>
@@ -107,6 +58,9 @@
   </si>
   <si>
     <t>Toplam Puan</t>
+  </si>
+  <si>
+    <t>KÖTÜ &lt;   1---5   &gt; İYİ</t>
   </si>
 </sst>
 </file>
@@ -477,118 +431,118 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,201 +868,206 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B16"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="28" t="s">
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B16"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:D4"/>
@@ -1116,13 +1075,9 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B16"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>